--- a/Data/writeoffs.xlsx
+++ b/Data/writeoffs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/ducle_dragoncapital_com/Documents/Profiles/Desktop/Projects/VS/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/ducle_dragoncapital_com/Documents/Profiles/Desktop/Projects/VS - Copy/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{43C25326-DA3E-4271-B38D-BC3A8A6FB2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA746FEF-4EF6-4A5E-A695-0A07348FC15D}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{43C25326-DA3E-4271-B38D-BC3A8A6FB2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46154DD2-AA26-4D15-AE79-71CA5E617B94}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Q12020</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t xml:space="preserve"> -   </t>
+  </si>
+  <si>
+    <t>Q22025</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -284,8 +287,8 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -505,13 +508,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -526,7 +532,7 @@
     <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -596,8 +602,11 @@
       <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -667,8 +676,9 @@
       <c r="W2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -738,8 +748,9 @@
       <c r="W3" s="8">
         <v>-40615</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="8"/>
+    </row>
+    <row r="4" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -809,8 +820,9 @@
       <c r="W4" s="8">
         <v>-990908</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="8"/>
+    </row>
+    <row r="5" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -880,8 +892,9 @@
       <c r="W5" s="8">
         <v>-4000428</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="8"/>
+    </row>
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="W6" s="8">
         <v>-6499884</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="8"/>
+    </row>
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1022,8 +1036,9 @@
       <c r="W7" s="9">
         <v>-94216</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1093,8 +1108,9 @@
       <c r="W8" s="8">
         <v>-1565611</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1164,8 +1180,11 @@
       <c r="W9" s="8">
         <v>-3610</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="8">
+        <v>-151166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1235,8 +1254,9 @@
       <c r="W10" s="8">
         <v>-3533969</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="8"/>
+    </row>
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1306,8 +1326,9 @@
       <c r="W11" s="8">
         <v>-447500</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1377,8 +1398,9 @@
       <c r="W12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="8"/>
+    </row>
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1448,8 +1470,9 @@
       <c r="W13" s="8">
         <v>-532811</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="8"/>
+    </row>
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -1520,8 +1543,9 @@
       <c r="W14" s="9">
         <v>-23857</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1591,8 +1615,9 @@
       <c r="W15" s="8">
         <v>-9.6560000000000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1662,8 +1687,9 @@
       <c r="W16" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="8"/>
+    </row>
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1733,8 +1759,11 @@
       <c r="W17" s="8">
         <v>-525500</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="8">
+        <v>-214819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1804,8 +1833,9 @@
       <c r="W18" s="8">
         <v>-197735</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="8"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1875,8 +1905,9 @@
       <c r="W19" s="8">
         <v>-40415</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="8"/>
+    </row>
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -1946,8 +1977,9 @@
       <c r="W20" s="8">
         <v>-443446</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -2017,8 +2049,9 @@
       <c r="W21" s="8">
         <v>-1220835</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -2088,8 +2121,11 @@
       <c r="W22" s="8">
         <v>-6558533</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X22" s="8">
+        <v>-5204665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -2159,8 +2195,9 @@
       <c r="W23" s="8">
         <v>-137718</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X23" s="8"/>
+    </row>
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
@@ -2230,8 +2267,9 @@
       <c r="W24" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X24" s="8"/>
+    </row>
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
@@ -2301,8 +2339,9 @@
       <c r="W25" s="8">
         <v>-160962</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X25" s="8"/>
+    </row>
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2411,9 @@
       <c r="W26" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="8"/>
+    </row>
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
@@ -2443,8 +2483,9 @@
       <c r="W27" s="8">
         <v>-3615</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="8"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -2514,6 +2555,7 @@
       <c r="W28" s="8">
         <v>0</v>
       </c>
+      <c r="X28" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W28">

--- a/Data/writeoffs.xlsx
+++ b/Data/writeoffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/ducle_dragoncapital_com/Documents/Profiles/Desktop/Projects/VS - Copy/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{43C25326-DA3E-4271-B38D-BC3A8A6FB2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46154DD2-AA26-4D15-AE79-71CA5E617B94}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{43C25326-DA3E-4271-B38D-BC3A8A6FB2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65BDB763-6EB4-4971-8608-FF840B8660CB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Q12020</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>TICKER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -   </t>
   </si>
   <si>
     <t>Q22025</t>
@@ -510,11 +507,11 @@
   </sheetPr>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
+      <selection pane="bottomRight" activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -603,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
@@ -1165,8 +1162,8 @@
       <c r="R9" s="8">
         <v>-3045883</v>
       </c>
-      <c r="S9" s="8" t="s">
-        <v>53</v>
+      <c r="S9" s="8">
+        <v>0</v>
       </c>
       <c r="T9" s="8">
         <v>0</v>
@@ -1905,7 +1902,10 @@
       <c r="W19" s="8">
         <v>-40415</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8">
+        <f>-56915-82847-W19</f>
+        <v>-99347</v>
+      </c>
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">

--- a/Data/writeoffs.xlsx
+++ b/Data/writeoffs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/ducle_dragoncapital_com/Documents/Profiles/Desktop/Projects/VS - Copy/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05c776d51af9edc4/Work-related/VS - Code project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{43C25326-DA3E-4271-B38D-BC3A8A6FB2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65BDB763-6EB4-4971-8608-FF840B8660CB}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{43C25326-DA3E-4271-B38D-BC3A8A6FB2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79867E53-3742-4213-AF87-E7F15EE7D398}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,9 +28,6 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="7w8cFnYb9pYkmUW2rZ7kSjz3FZbihpF0R3rsUMkxJ8I="/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -208,11 +205,18 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,6 +235,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,33 +287,87 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="28">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="16" xr:uid="{165ACF62-DE38-426A-91D7-9C66C4369CEF}"/>
+    <cellStyle name="Comma 2 2" xfId="23" xr:uid="{376218F7-5B53-4853-8BFA-35D25092FB76}"/>
+    <cellStyle name="Comma 3" xfId="6" xr:uid="{429C520F-DF17-4B9A-BB0D-C126B3E92265}"/>
+    <cellStyle name="Comma 3 2" xfId="24" xr:uid="{B63F5DD5-AC4A-492C-B6CC-DDD5AC9738CB}"/>
+    <cellStyle name="Comma 4" xfId="27" xr:uid="{127F9D38-E322-4F2F-88A7-D7D5837BD329}"/>
+    <cellStyle name="Comma 5" xfId="3" xr:uid="{B36819A1-C571-4E5B-8E89-803153CBAB03}"/>
+    <cellStyle name="Comma 8" xfId="21" xr:uid="{E3D4CA94-8627-45DF-80B5-9DBA84E26D77}"/>
+    <cellStyle name="Hyperlink" xfId="15" xr:uid="{03F283C7-9D03-4643-81D5-995A9F69F397}"/>
+    <cellStyle name="Hyperlink 2" xfId="25" xr:uid="{0121F4BB-C6C9-44C9-8C69-989B0B16A755}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="18" xr:uid="{382CC95C-340C-4F28-8BBC-62D30A8295BB}"/>
+    <cellStyle name="Normal 10 2" xfId="19" xr:uid="{A71AF56B-38EB-4D71-8B6D-A19E535E7CF2}"/>
+    <cellStyle name="Normal 11" xfId="26" xr:uid="{F89E8F50-9FF0-495F-A447-887BC4E0DD4F}"/>
+    <cellStyle name="Normal 12" xfId="2" xr:uid="{DAF6FAE2-7095-4CBB-8564-00EB1A741F6C}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{F6BE48AA-DB58-44A3-882F-5BE1547FDE98}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{3CE55FE2-F50A-4E46-A41F-E3F527566A3D}"/>
+    <cellStyle name="Normal 3 2" xfId="9" xr:uid="{42DB5056-DFC0-4135-8E94-1F188BF8B88B}"/>
+    <cellStyle name="Normal 4" xfId="8" xr:uid="{0FC60FAB-8F27-4A96-B852-52AF2D41360F}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{34669A43-F0D6-4046-9CAF-3BE165728BE2}"/>
+    <cellStyle name="Normal 6" xfId="12" xr:uid="{9C6FBA69-8E5D-4A4E-A545-C66782D435AF}"/>
+    <cellStyle name="Normal 7" xfId="13" xr:uid="{E5A50BB7-3349-45AA-BEF5-B11CE4AB2A59}"/>
+    <cellStyle name="Normal 8" xfId="14" xr:uid="{C8CF975E-9D69-4E4F-AAF7-C4AD2A6F50AC}"/>
+    <cellStyle name="Normal 8 2" xfId="20" xr:uid="{B47F8342-9972-4F4D-8DAE-189E92376D7E}"/>
+    <cellStyle name="Normal 9" xfId="17" xr:uid="{9AAD6AB7-6FD1-408C-96B2-31708AF5CD08}"/>
+    <cellStyle name="Normal 9 2" xfId="22" xr:uid="{7F6D2457-EF45-4E0D-82F2-4A9F710BC790}"/>
+    <cellStyle name="Percent 2" xfId="4" xr:uid="{09CD0CE6-FEED-4B44-B94A-8EDF7F1804BA}"/>
+    <cellStyle name="Percent 2 2" xfId="7" xr:uid="{45C98957-274A-4FCA-A088-3DAF7FB81294}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -505,13 +583,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:AY28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X19" sqref="X19"/>
+      <selection pane="bottomRight" activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -527,9 +605,10 @@
     <col min="17" max="21" width="15" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="16" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -603,7 +682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -673,9 +752,36 @@
       <c r="W2" s="8">
         <v>0</v>
       </c>
-      <c r="X2" s="8"/>
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
     </row>
-    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -745,9 +851,11 @@
       <c r="W3" s="8">
         <v>-40615</v>
       </c>
-      <c r="X3" s="8"/>
+      <c r="X3" s="8">
+        <v>-101958</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -817,9 +925,12 @@
       <c r="W4" s="8">
         <v>-990908</v>
       </c>
-      <c r="X4" s="8"/>
+      <c r="X4" s="8">
+        <v>-752417</v>
+      </c>
+      <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -889,9 +1000,11 @@
       <c r="W5" s="8">
         <v>-4000428</v>
       </c>
-      <c r="X5" s="8"/>
+      <c r="X5" s="8">
+        <v>-6316176</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -961,9 +1074,11 @@
       <c r="W6" s="8">
         <v>-6499884</v>
       </c>
-      <c r="X6" s="8"/>
+      <c r="X6" s="8">
+        <v>-7796382</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1033,9 +1148,11 @@
       <c r="W7" s="9">
         <v>-94216</v>
       </c>
-      <c r="X7" s="9"/>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1105,9 +1222,11 @@
       <c r="W8" s="8">
         <v>-1565611</v>
       </c>
-      <c r="X8" s="8"/>
+      <c r="X8" s="8">
+        <v>-3681973</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +1300,7 @@
         <v>-151166</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1251,9 +1370,11 @@
       <c r="W10" s="8">
         <v>-3533969</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8">
+        <v>-3242440</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1323,9 +1444,11 @@
       <c r="W11" s="8">
         <v>-447500</v>
       </c>
-      <c r="X11" s="8"/>
+      <c r="X11" s="8">
+        <v>-658197</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1395,9 +1518,11 @@
       <c r="W12" s="8">
         <v>0</v>
       </c>
-      <c r="X12" s="8"/>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1467,9 +1592,11 @@
       <c r="W13" s="8">
         <v>-532811</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8">
+        <v>-417732.27</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -1540,9 +1667,11 @@
       <c r="W14" s="9">
         <v>-23857</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="9">
+        <v>-3866234</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1612,9 +1741,11 @@
       <c r="W15" s="8">
         <v>-9.6560000000000006</v>
       </c>
-      <c r="X15" s="8"/>
+      <c r="X15" s="8">
+        <v>-29639</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1684,7 +1815,9 @@
       <c r="W16" s="8">
         <v>1</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8">
+        <v>-583203</v>
+      </c>
     </row>
     <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1830,7 +1963,9 @@
       <c r="W18" s="8">
         <v>-197735</v>
       </c>
-      <c r="X18" s="8"/>
+      <c r="X18" s="8">
+        <v>-579057</v>
+      </c>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1903,8 +2038,7 @@
         <v>-40415</v>
       </c>
       <c r="X19" s="8">
-        <f>-56915-82847-W19</f>
-        <v>-99347</v>
+        <v>-40415</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1977,7 +2111,9 @@
       <c r="W20" s="8">
         <v>-443446</v>
       </c>
-      <c r="X20" s="8"/>
+      <c r="X20" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -2049,7 +2185,9 @@
       <c r="W21" s="8">
         <v>-1220835</v>
       </c>
-      <c r="X21" s="8"/>
+      <c r="X21" s="8">
+        <v>-823997</v>
+      </c>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -2195,7 +2333,9 @@
       <c r="W23" s="8">
         <v>-137718</v>
       </c>
-      <c r="X23" s="8"/>
+      <c r="X23" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -2267,7 +2407,9 @@
       <c r="W24" s="8">
         <v>0</v>
       </c>
-      <c r="X24" s="8"/>
+      <c r="X24" s="8">
+        <v>-97640</v>
+      </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -2339,7 +2481,9 @@
       <c r="W25" s="8">
         <v>-160962</v>
       </c>
-      <c r="X25" s="8"/>
+      <c r="X25" s="8">
+        <v>-216628</v>
+      </c>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -2411,7 +2555,9 @@
       <c r="W26" s="8">
         <v>0</v>
       </c>
-      <c r="X26" s="8"/>
+      <c r="X26" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -2483,7 +2629,9 @@
       <c r="W27" s="8">
         <v>-3615</v>
       </c>
-      <c r="X27" s="8"/>
+      <c r="X27" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -2555,7 +2703,9 @@
       <c r="W28" s="8">
         <v>0</v>
       </c>
-      <c r="X28" s="8"/>
+      <c r="X28" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W28">
